--- a/outputs/walmart-vitaminas.xlsx
+++ b/outputs/walmart-vitaminas.xlsx
@@ -1,37 +1,657 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KRUSS\Documents\web_scraping\proyecto_bra\finals\web-scraping-thomas\outputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="203">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>sellby</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>3 Ne$6NeVih</t>
+  </si>
+  <si>
+    <t>3 pack sitema inmune Vitamina C Vitamina D3 y Zinc New life fracos de 90 capsulas de Vitamina C frasco de 90 capsulas de zinc y frasco con 120 capsulas de D3</t>
+  </si>
+  <si>
+    <t>New life</t>
+  </si>
+  <si>
+    <t>$600.00</t>
+  </si>
+  <si>
+    <t>New Life Suplementos</t>
+  </si>
+  <si>
+    <t>Vitaminas y Suplementos</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/08470cd4-2a85-40c1-93d4-0c1e36d47b9b.c5f95db98e7a3fc28c232ad2b7e1c3e6.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>ViEs$1WaVih</t>
+  </si>
+  <si>
+    <t>Vitamina D Essential Nutrition 30 Cápsulas</t>
+  </si>
+  <si>
+    <t>Essential Nutrition</t>
+  </si>
+  <si>
+    <t>$137.00</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/1p/images/product-images/img_large/00750624170082l.jpg</t>
+  </si>
+  <si>
+    <t>3 Ne$4NeVih</t>
+  </si>
+  <si>
+    <t>3 PACK VITAPRO C New life 3 cajas con 10 sobres cada 1</t>
+  </si>
+  <si>
+    <t>$450.00</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/0117595d-e884-4fb3-9a1b-c50abc3b1c5e.e599d6130d2294180d849d66b1538ba8.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>ViEs$2WaVih</t>
+  </si>
+  <si>
+    <t>Vitamina D-3 Essential Nutrition 45 Cápsulas</t>
+  </si>
+  <si>
+    <t>$205.00</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/1p/images/product-images/img_large/00750624170193l.jpg</t>
+  </si>
+  <si>
+    <t>2 Ne$3NeVih</t>
+  </si>
+  <si>
+    <t>2 Pack de VITAMINA C New life frasco de 90 capsulas</t>
+  </si>
+  <si>
+    <t>$390.00</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/d6577230-ee91-4230-be24-9ba5f0e383d5.d6a7ad44af88bb37ebe8cf53cc691f9e.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>CáNE$2NeVih</t>
+  </si>
+  <si>
+    <t>Cápsulas de Vitamina D3 NEW LIFE capsulas</t>
+  </si>
+  <si>
+    <t>NEW LIFE</t>
+  </si>
+  <si>
+    <t>$250.00</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/c4aee978-a54a-4666-b07e-e9e77b2fe2fd.5a168f62864c21131d44818307a2c287.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>ViMu$3WaVih</t>
+  </si>
+  <si>
+    <t>Vitaminas MultiBlue Cápsulas Multivitamínicas para el Sistema Inmune</t>
+  </si>
+  <si>
+    <t>MultiBlue</t>
+  </si>
+  <si>
+    <t>$398.00</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/1p/images/product-images/img_large/00750046281588l.jpg</t>
+  </si>
+  <si>
+    <t>2 Pack ZINC&amp;nbsp; New life frasco de 90 capsulas</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/72c6b5f3-397c-4f51-b868-4654a911d779.d3c7c64da681f53841a27d83bea3f1de.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>Vitamina C Essential Nutrition 30 Cápsulas</t>
+  </si>
+  <si>
+    <t>$143.00</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/1p/images/product-images/img_large/00750300607346l.jpg</t>
+  </si>
+  <si>
+    <t>VILI$1LIVih</t>
+  </si>
+  <si>
+    <t>VITAMINA C LIV NUTRITION CON HONGO SHIITAKE FRASCO CON 30 CÁPSULAS VEGANAS.</t>
+  </si>
+  <si>
+    <t>LIV NUTRITION</t>
+  </si>
+  <si>
+    <t>$179.00</t>
+  </si>
+  <si>
+    <t>LIV NUTRITIONS SA DE CV</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/d15f41b6-c97b-4b4d-9dce-227b49218af4.34f44ac4552bb69436cb1c8ba8be43b3.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>ViEs$8WaVih</t>
+  </si>
+  <si>
+    <t>Vitamina C Essential Nutrition Kids 120 Tabletas Masticables</t>
+  </si>
+  <si>
+    <t>$87.00</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/1p/images/product-images/img_large/00750624170057l.jpg</t>
+  </si>
+  <si>
+    <t>VITAMINA B12 LIV NUTRITION CON NONI FRASCO CON 30 CÁPSULAS VEGANAS.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/704603ed-8ed8-43f5-9b4d-05c507ee5b91.7f24c35cd1d6707e9357216a74db0fd7.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>VILI$1LIVi</t>
+  </si>
+  <si>
+    <t>VITAMINA E LIV NUTRITION CON SEMILLA DE UVA FRASCO CON 30 CÁPSULAS VEGANAS.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/1f87c02b-c007-4018-ad4a-6fdb74f06ecc.f9fe64fc7c6fd427b5bfe4d877d95a56.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>GoWo$2WaVih</t>
+  </si>
+  <si>
+    <t>Gomitas Wonu Colágeno Vitamina C Biotina y Q10 360 g 120 piezas</t>
+  </si>
+  <si>
+    <t>Wonu</t>
+  </si>
+  <si>
+    <t>$299.00</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/1p/images/product-images/img_large/00750302802983l.jpg</t>
+  </si>
+  <si>
+    <t>ViVi$1VIVih</t>
+  </si>
+  <si>
+    <t>Vitamina C 120 tabletas Vidanat Vidanat VDTVITAMINAC120</t>
+  </si>
+  <si>
+    <t>Vidanat</t>
+  </si>
+  <si>
+    <t>$159.00</t>
+  </si>
+  <si>
+    <t>VITAZONE</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/8c2d4eb3-4bf8-45ab-8cc1-e0cd023e8312.ba289a2b60109cdba374024379b6039f.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>ViVi$1VINuh</t>
+  </si>
+  <si>
+    <t>Vitamina C Kids 90 tabletas masticables Vidanat. Vidanat VDTVITAMINACKIDS</t>
+  </si>
+  <si>
+    <t>$199.00</t>
+  </si>
+  <si>
+    <t>Nutrición y Medicina Deportiva</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/e909c4c6-c4d3-4de8-a4ab-f656f18b561c.31a85fec63859aff050e7f87be1dfc06.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>Vitamina E 1000 30 cápsulas Vidanat Vidanat VDTVITAMINAE1000</t>
+  </si>
+  <si>
+    <t>$119.00</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/45fdab0d-004d-4f61-89bc-8943c1da0a3c.2e64020b6096ff3d9b975019333fc757.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>ViWe$2BIVih</t>
+  </si>
+  <si>
+    <t>Vitamina C Jengibre 90 cápsulas Wellthy Wellthy WELLVITCJENGIBRE</t>
+  </si>
+  <si>
+    <t>Wellthy</t>
+  </si>
+  <si>
+    <t>BIONUTRIENTS GLOBAL S DE RL DE CV</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/803de380-6a46-4a92-9b89-d7820ff0f8b3.629407f9fcbc2ab9ff1fa14d5941ebf2.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>Vitamina C 90 cápsulas Wellthy Wellthy WELLVITAMINAC</t>
+  </si>
+  <si>
+    <t>$230.00</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/52275d5d-a1bd-4961-9d66-4cf2347d1902.355ad71a649388074b8a9ff3d198a723.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>ViMu$3WaEqh</t>
+  </si>
+  <si>
+    <t>Vitaminas MultiBlue con cápsulas Multivitamínicas para la Piel Cabello y Uñas</t>
+  </si>
+  <si>
+    <t>Equipo Médico</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/1p/images/product-images/img_large/00750046281587l.jpg</t>
+  </si>
+  <si>
+    <t>Vitaminas Essential Nutrition 60 Tabletas Masticables</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/1p/images/product-images/img_large/00750624170058l.jpg</t>
+  </si>
+  <si>
+    <t>Vinu$3DpVih</t>
+  </si>
+  <si>
+    <t>Vitaminas nutrakey Melatonina nutrakey Melatonina</t>
+  </si>
+  <si>
+    <t>nutrakey</t>
+  </si>
+  <si>
+    <t>$339.25</t>
+  </si>
+  <si>
+    <t>Dprisa MX</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/bded91af-e5a4-4686-94da-129d424b0cf0.93789204ed50280c71398f65bc5cafdb.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>L-LI$3WaNuh</t>
+  </si>
+  <si>
+    <t>L-Carnitina con Vitaminas LIFE 180 120 cápsulas 240 mg por cápsula</t>
+  </si>
+  <si>
+    <t>LIFE 180</t>
+  </si>
+  <si>
+    <t>$359.00</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/1p/images/product-images/img_large/00750302453931l.jpg</t>
+  </si>
+  <si>
+    <t>ViLa$1VeEsh</t>
+  </si>
+  <si>
+    <t>Vitaminas para el cerebro 3 La Galera Libro Infantil</t>
+  </si>
+  <si>
+    <t>La Galera</t>
+  </si>
+  <si>
+    <t>$169.00</t>
+  </si>
+  <si>
+    <t>Verne Inc</t>
+  </si>
+  <si>
+    <t>Escolares y Arte</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/3100e5c3-ce9d-436d-b0b3-a0c09cb8f7f5.a25492bc335d85d829489df2174bae19.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>Vitaminas para el cerebro 2 La Galera Libro Infantil</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/be2d5aef-e4ae-48a2-97d3-0ac775e089af.9e5771b1b5d710bf234d63bc6eb49c1e.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>ViNo$6DpVih</t>
+  </si>
+  <si>
+    <t>Vitaminas Now Resveratrol Now Natural Resveratrol 200 mg</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>$683.10</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/d570bd57-3799-4c00-9b07-c50b52520e0c.a7b3ea1a46be41097420ed9224f1fdc1.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>Vitaminas para el cerebro 1 La Galera Libro Infantil</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/65fedbbd-3d38-4333-948e-0c21d96f9e9c.c95224598d9cbe2c027fa93c214b584f.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>ViNo$4DpVih</t>
+  </si>
+  <si>
+    <t>Vitaminas Now Omega 3 Now Omega 3</t>
+  </si>
+  <si>
+    <t>$431.82</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/7ad7d36a-7cc7-4ffc-83a7-26a793432042.49b2e6e6b0d099626dd3327dd94d0247.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>ViNO$4DpVih</t>
+  </si>
+  <si>
+    <t>Vitaminas NOW Ashwagandha 450mg. NOW Ashwagandha 450mg.</t>
+  </si>
+  <si>
+    <t>NOW</t>
+  </si>
+  <si>
+    <t>$445.05</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/1bad6d08-9fe5-458e-8328-afaa8d7b9f48.2342d9a7348694eee44ee56a49aa7695.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>ViNo$3DpVih</t>
+  </si>
+  <si>
+    <t>Vitaminas Now E 400IU 50 Softgels Now E 400IU</t>
+  </si>
+  <si>
+    <t>$352.47</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/dda16c70-f364-4697-a13e-90a685802120.f52d36fd3368135e60265061844093c3.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>ViNu$4DpVih</t>
+  </si>
+  <si>
+    <t>Vitaminas NutraKey Coq10 60 Cápsulas NutraKey Coq10</t>
+  </si>
+  <si>
+    <t>NutraKey</t>
+  </si>
+  <si>
+    <t>$438.44</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/5d5f6764-db79-4556-8787-3635ec4d65e3.a9034cb00c5f519efe96976d54ca08e4.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>Vitaminas NutraKey Q10 60 Cápsulas NutraKey Q10</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/fce71123-8545-4f84-a884-81b237dec8ac.15bd9ce666e90925a26f9726341559ff.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>ViEs$1WaCuh</t>
+  </si>
+  <si>
+    <t>Vitamina E Essential Nutrition Facial Fashion Face 45 Cápsulas Twis Off</t>
+  </si>
+  <si>
+    <t>$155.00</t>
+  </si>
+  <si>
+    <t>Cuidado Facial</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/1p/images/product-images/img_large/00750300607392l.jpg</t>
+  </si>
+  <si>
+    <t>SuSu$1AlVih</t>
+  </si>
+  <si>
+    <t>Sugarbear Women's Multi Vitaminas 60 gomitas Sugarbearhair Multivitaminico</t>
+  </si>
+  <si>
+    <t>Sugarbearhair</t>
+  </si>
+  <si>
+    <t>$1,200.00</t>
+  </si>
+  <si>
+    <t>Allnatural.mx</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/acac801e-e738-4548-840e-faead1e17a0e.b9b1c1252c2013244860236994f1288e.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>Vitaminas Now Biotina 5,000mcg 60 Cápsulas Now Biotina 5,000mcg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/2a1052be-e68c-491f-af74-810e85c3e9e7.938fc0695af22eaacd76f6a5f2088561.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>2 NE$3NeVih</t>
+  </si>
+  <si>
+    <t>2 pack Vitamina C Vitamina D3 NEW LIFE ESSENTIALS frasco de 90 capsulas de Vitamina C Frasco de 120 capsulas de Vitamina D3</t>
+  </si>
+  <si>
+    <t>NEW LIFE ESSENTIALS</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/734461ca-0685-4461-86e2-6394fa545ec7.e05437c7db68fbd698943b70e07c267c.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>LaPr$2VIe-h</t>
+  </si>
+  <si>
+    <t>La Femme Isoflavonas de Soya y Vitaminas 30 cápsulas Progela PROGELALAFEMME</t>
+  </si>
+  <si>
+    <t>Progela</t>
+  </si>
+  <si>
+    <t>$259.00</t>
+  </si>
+  <si>
+    <t>e-Readers y Accesorios</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/5fa9a832-c74b-4544-b7b6-62a6f650c264.906d98e65e97af4065c14abb86b8c549.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>Vitaminas Now Bone Strength 120 Cápsulas Now Bone Strength</t>
+  </si>
+  <si>
+    <t>$449.68</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/1f7a839d-9fcb-45f8-8cb2-f3f4fd1a5fab.f687aeefb25f411ae9328bec7e93c5e2.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>Vitaminas Now Ácido Hialuronico 60 Cápsulas Now Ácido Hialuronico</t>
+  </si>
+  <si>
+    <t>$669.88</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/a3a05316-358a-4d2a-a3c3-5a56cc81b02c.60ff36c09a9b0dbf59bd7f436db5d82a.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>ViNo$2DpVih</t>
+  </si>
+  <si>
+    <t>Vitaminas Now A 10,000 iu 100 Softgels Now A 10,000 iu</t>
+  </si>
+  <si>
+    <t>$299.57</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/74b81934-0c89-44d2-ac3c-0803465c5d4a.59b93aa68aa885722c1c2beed350223d.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>ViEV$4DpVih</t>
+  </si>
+  <si>
+    <t>Vitaminas Evl Turmeric Cúrcuma 90 Cápsulas EVL Turmeric Cúrcuma</t>
+  </si>
+  <si>
+    <t>EVL</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/cf02d6da-2418-4532-bd61-1ff46f15d1d4.e90fb9eb8a168ae8f6b6eee31dc0bb3c.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>Vitamina C Now Vitamina C 100 Cápsulas Now Vitamina C</t>
+  </si>
+  <si>
+    <t>$392.15</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/19245735-7611-452a-948d-ddd9cfa95935.80f6a7995e7852847226303d68f880c6.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>ViSo$1VIVih</t>
+  </si>
+  <si>
+    <t>Vitamina D3 y Vitamina K2 45 perlacaps Solanum Solanum SOLVITAMINAD3K2</t>
+  </si>
+  <si>
+    <t>Solanum</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/be0a8c8e-7e84-4278-8648-3f36a71f96c4.d7c0f4dda742d54f9508427149d697f6.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>ViFo$3NuVih</t>
+  </si>
+  <si>
+    <t>Vitaminas para Mujer Forzagen Essentials 60 tabletas Colagéno Forzagen Women's multivitamin</t>
+  </si>
+  <si>
+    <t>Forzagen</t>
+  </si>
+  <si>
+    <t>$349.00</t>
+  </si>
+  <si>
+    <t>Nutrition Systems, S.A. de C.V.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/55de6c36-a9ef-4004-8a05-082e517ca1aa.6c2dc7e78a04b7c25744b34c94750d10.png?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>ViSo$3VIVih</t>
+  </si>
+  <si>
+    <t>Vitamina D3 y Vitamina K2 Solanum 150 cápsulas Solanum SOLVITAMINAD3K2150CAPS</t>
+  </si>
+  <si>
+    <t>$399.00</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/18a1af19-ae01-4c32-a3d7-b1c970c4daa1.0da3d8d4fde0410082b706cc7f88b64f.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>Vitaminas Now Ácido Alfa Lipóico 60 Cápsulas Now Ácido Alfa Lipóico</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/0604ccd1-9844-4fea-8b9f-25c160aa6914.7495a42c87a5e8800ee5ff3c5ed443c3.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+  <si>
+    <t>OmNa$1VIVih</t>
+  </si>
+  <si>
+    <t>Omega 3 Vitaminas Kids 60 gomitas Naturelab Naturelab NLBOMEGA3VITAMINSKIDS</t>
+  </si>
+  <si>
+    <t>Naturelab</t>
+  </si>
+  <si>
+    <t>$149.00</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/walmart-labs/image/upload/w_960,dpr_auto,f_auto,q_auto:best/mg/gm/3pp/asr/6d983214-91b1-40c8-a8bd-a1004ffbfbd8.d69f13c9b9130f76011435e1067d3fe8.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=ffffff</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +666,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,54 +990,1146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="76.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="7" width="144.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>brand</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>sellby</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" t="s">
+        <v>163</v>
+      </c>
+      <c r="G39" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B45" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" t="s">
+        <v>189</v>
+      </c>
+      <c r="E46" t="s">
+        <v>190</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" t="s">
+        <v>196</v>
+      </c>
+      <c r="C48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49" t="s">
+        <v>199</v>
+      </c>
+      <c r="C49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D49" t="s">
+        <v>201</v>
+      </c>
+      <c r="E49" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
